--- a/u3/a1/Zusammenfassung.xlsx
+++ b/u3/a1/Zusammenfassung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\u3\a1\kernel\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\u3\a1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="l1dassoc" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,16 @@
     <sheet name="lsize" sheetId="7" r:id="rId13"/>
     <sheet name="lsize-d-relcycles" sheetId="8" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">l1dassoc!$A$1:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">l1dsize!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">l2uassoc!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">l2usize!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">l3uassoc!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">l3usize!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">lsize!$A$1:$K$26</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -639,8 +647,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1106,11 +1121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500648280"/>
-        <c:axId val="500647104"/>
+        <c:axId val="374376632"/>
+        <c:axId val="374369968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="500648280"/>
+        <c:axId val="374376632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500647104"/>
+        <c:crossAx val="374369968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500647104"/>
+        <c:axId val="374369968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500648280"/>
+        <c:crossAx val="374376632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,11 +1731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488201216"/>
-        <c:axId val="488178480"/>
+        <c:axId val="374370360"/>
+        <c:axId val="374379768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488201216"/>
+        <c:axId val="374370360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488178480"/>
+        <c:crossAx val="374379768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488178480"/>
+        <c:axId val="374379768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488201216"/>
+        <c:crossAx val="374370360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2329,11 +2344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488176128"/>
-        <c:axId val="488182400"/>
+        <c:axId val="374373104"/>
+        <c:axId val="374384864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488176128"/>
+        <c:axId val="374373104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488182400"/>
+        <c:crossAx val="374384864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2398,7 +2413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488182400"/>
+        <c:axId val="374384864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488176128"/>
+        <c:crossAx val="374373104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2939,11 +2954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189817952"/>
-        <c:axId val="189817168"/>
+        <c:axId val="372912200"/>
+        <c:axId val="372908672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189817952"/>
+        <c:axId val="372912200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +3015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189817168"/>
+        <c:crossAx val="372908672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3008,7 +3023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189817168"/>
+        <c:axId val="372908672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189817952"/>
+        <c:crossAx val="372912200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,11 +3567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248608208"/>
-        <c:axId val="248610168"/>
+        <c:axId val="372910240"/>
+        <c:axId val="372911024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248608208"/>
+        <c:axId val="372910240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248610168"/>
+        <c:crossAx val="372911024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3621,7 +3636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248610168"/>
+        <c:axId val="372911024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248608208"/>
+        <c:crossAx val="372910240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4162,11 +4177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248610560"/>
-        <c:axId val="248606640"/>
+        <c:axId val="374971688"/>
+        <c:axId val="374983448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248610560"/>
+        <c:axId val="374971688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +4238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248606640"/>
+        <c:crossAx val="374983448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4231,7 +4246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248606640"/>
+        <c:axId val="374983448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248610560"/>
+        <c:crossAx val="374971688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4757,11 +4772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248606248"/>
-        <c:axId val="248609776"/>
+        <c:axId val="370810328"/>
+        <c:axId val="370808368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248606248"/>
+        <c:axId val="370810328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +4833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248609776"/>
+        <c:crossAx val="370808368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4826,7 +4841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248609776"/>
+        <c:axId val="370808368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,7 +4884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248606248"/>
+        <c:crossAx val="370810328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8879,7 +8894,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8890,7 +8906,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8898,10 +8915,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8909,10 +8927,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8923,7 +8942,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8934,7 +8954,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8945,7 +8966,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -8953,7 +8975,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -8980,7 +9002,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6011793"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -9007,7 +9029,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6011793"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -9034,7 +9056,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -9061,7 +9083,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -9115,7 +9137,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9304020" cy="6004560"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -9403,16 +9425,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10419,6 +10449,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="K3:K10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -10456,6 +10489,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10466,9 +10500,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11634,6 +11678,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11641,14 +11686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -12775,6 +12832,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="K3:K11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -12812,6 +12872,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12819,14 +12880,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14016,6 +14083,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14023,13 +14091,1213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5300290</v>
+      </c>
+      <c r="D3">
+        <v>146281</v>
+      </c>
+      <c r="E3">
+        <v>193356</v>
+      </c>
+      <c r="F3">
+        <v>142190</v>
+      </c>
+      <c r="G3">
+        <v>189040</v>
+      </c>
+      <c r="H3">
+        <v>28530</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>33041139</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>K3</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>K12</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>K21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5300311</v>
+      </c>
+      <c r="D4">
+        <v>146199</v>
+      </c>
+      <c r="E4">
+        <v>193277</v>
+      </c>
+      <c r="F4">
+        <v>142188</v>
+      </c>
+      <c r="G4">
+        <v>189038</v>
+      </c>
+      <c r="H4">
+        <v>28391</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>33003762</v>
+      </c>
+      <c r="K4">
+        <v>0.99886877386399997</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N11" si="0">K4</f>
+        <v>0.99886877386399997</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="1">K13</f>
+        <v>0.70828267418199997</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="2">K22</f>
+        <v>0.99999747068400002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5300301</v>
+      </c>
+      <c r="D5">
+        <v>146182</v>
+      </c>
+      <c r="E5">
+        <v>193287</v>
+      </c>
+      <c r="F5">
+        <v>142200</v>
+      </c>
+      <c r="G5">
+        <v>189061</v>
+      </c>
+      <c r="H5">
+        <v>28330</v>
+      </c>
+      <c r="I5">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>32988955</v>
+      </c>
+      <c r="K5">
+        <v>0.99842063556000005</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.99842063556000005</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.55528681702799998</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>0.99998911977500005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5300311</v>
+      </c>
+      <c r="D6">
+        <v>146197</v>
+      </c>
+      <c r="E6">
+        <v>193306</v>
+      </c>
+      <c r="F6">
+        <v>142193</v>
+      </c>
+      <c r="G6">
+        <v>189048</v>
+      </c>
+      <c r="H6">
+        <v>28365</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>32997880</v>
+      </c>
+      <c r="K6">
+        <v>0.99869075336699997</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.99869075336699997</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.55515089807600004</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>0.99999069167900001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>5300301</v>
+      </c>
+      <c r="D7">
+        <v>146662</v>
+      </c>
+      <c r="E7">
+        <v>193830</v>
+      </c>
+      <c r="F7">
+        <v>142208</v>
+      </c>
+      <c r="G7">
+        <v>189075</v>
+      </c>
+      <c r="H7">
+        <v>28335</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>32998601</v>
+      </c>
+      <c r="K7">
+        <v>0.99871257464800001</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.99871257464800001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.55509214172599997</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0.99998943821999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>5300319</v>
+      </c>
+      <c r="D8">
+        <v>146700</v>
+      </c>
+      <c r="E8">
+        <v>193888</v>
+      </c>
+      <c r="F8">
+        <v>142199</v>
+      </c>
+      <c r="G8">
+        <v>189058</v>
+      </c>
+      <c r="H8">
+        <v>28328</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>32997020</v>
+      </c>
+      <c r="K8">
+        <v>0.99866472520799998</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.99866472520799998</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.55505762201800002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0.99998893719199999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>5300319</v>
+      </c>
+      <c r="D9">
+        <v>146357</v>
+      </c>
+      <c r="E9">
+        <v>193450</v>
+      </c>
+      <c r="F9">
+        <v>142202</v>
+      </c>
+      <c r="G9">
+        <v>189068</v>
+      </c>
+      <c r="H9">
+        <v>28328</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>32991042</v>
+      </c>
+      <c r="K9">
+        <v>0.99848379924200004</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.99848379924200004</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.55505455217999999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0.99998890382000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>5300308</v>
+      </c>
+      <c r="D10">
+        <v>146515</v>
+      </c>
+      <c r="E10">
+        <v>193695</v>
+      </c>
+      <c r="F10">
+        <v>142206</v>
+      </c>
+      <c r="G10">
+        <v>189070</v>
+      </c>
+      <c r="H10">
+        <v>28327</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>32994469</v>
+      </c>
+      <c r="K10">
+        <v>0.998587518427</v>
+      </c>
+      <c r="M10">
+        <v>64</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.998587518427</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.55502939535200002</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0.99998916189800002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>5300353</v>
+      </c>
+      <c r="D11">
+        <v>146240</v>
+      </c>
+      <c r="E11">
+        <v>193302</v>
+      </c>
+      <c r="F11">
+        <v>142197</v>
+      </c>
+      <c r="G11">
+        <v>189056</v>
+      </c>
+      <c r="H11">
+        <v>28327</v>
+      </c>
+      <c r="I11">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>32988215</v>
+      </c>
+      <c r="K11">
+        <v>0.998398239237</v>
+      </c>
+      <c r="M11">
+        <v>128</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.998398239237</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.55486789782099999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.999991080132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>39706736</v>
+      </c>
+      <c r="D12">
+        <v>1006421</v>
+      </c>
+      <c r="E12">
+        <v>1340221</v>
+      </c>
+      <c r="F12">
+        <v>1002325</v>
+      </c>
+      <c r="G12">
+        <v>1335908</v>
+      </c>
+      <c r="H12">
+        <v>781307</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>391225796</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>39706736</v>
+      </c>
+      <c r="D13">
+        <v>1006735</v>
+      </c>
+      <c r="E13">
+        <v>1340579</v>
+      </c>
+      <c r="F13">
+        <v>1002312</v>
+      </c>
+      <c r="G13">
+        <v>1335881</v>
+      </c>
+      <c r="H13">
+        <v>344022</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>277098453</v>
+      </c>
+      <c r="K13">
+        <v>0.70828267418199997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>39706736</v>
+      </c>
+      <c r="D14">
+        <v>1007200</v>
+      </c>
+      <c r="E14">
+        <v>1341271</v>
+      </c>
+      <c r="F14">
+        <v>1002325</v>
+      </c>
+      <c r="G14">
+        <v>1335908</v>
+      </c>
+      <c r="H14">
+        <v>114645</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>217242527</v>
+      </c>
+      <c r="K14">
+        <v>0.55528681702799998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>39706719</v>
+      </c>
+      <c r="D15">
+        <v>1006959</v>
+      </c>
+      <c r="E15">
+        <v>1340868</v>
+      </c>
+      <c r="F15">
+        <v>1002324</v>
+      </c>
+      <c r="G15">
+        <v>1335902</v>
+      </c>
+      <c r="H15">
+        <v>114466</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>217189352</v>
+      </c>
+      <c r="K15">
+        <v>0.55515089807600004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>39706719</v>
+      </c>
+      <c r="D16">
+        <v>1006790</v>
+      </c>
+      <c r="E16">
+        <v>1340671</v>
+      </c>
+      <c r="F16">
+        <v>1002323</v>
+      </c>
+      <c r="G16">
+        <v>1335906</v>
+      </c>
+      <c r="H16">
+        <v>114388</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>217166365</v>
+      </c>
+      <c r="K16">
+        <v>0.55509214172599997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>39706744</v>
+      </c>
+      <c r="D17">
+        <v>1006634</v>
+      </c>
+      <c r="E17">
+        <v>1340515</v>
+      </c>
+      <c r="F17">
+        <v>1002312</v>
+      </c>
+      <c r="G17">
+        <v>1335888</v>
+      </c>
+      <c r="H17">
+        <v>114347</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>217152860</v>
+      </c>
+      <c r="K17">
+        <v>0.55505762201800002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>39706737</v>
+      </c>
+      <c r="D18">
+        <v>1006709</v>
+      </c>
+      <c r="E18">
+        <v>1340581</v>
+      </c>
+      <c r="F18">
+        <v>1002321</v>
+      </c>
+      <c r="G18">
+        <v>1335902</v>
+      </c>
+      <c r="H18">
+        <v>114337</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <v>217151659</v>
+      </c>
+      <c r="K18">
+        <v>0.55505455217999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>39706754</v>
+      </c>
+      <c r="D19">
+        <v>1006241</v>
+      </c>
+      <c r="E19">
+        <v>1340034</v>
+      </c>
+      <c r="F19">
+        <v>1002306</v>
+      </c>
+      <c r="G19">
+        <v>1335872</v>
+      </c>
+      <c r="H19">
+        <v>114334</v>
+      </c>
+      <c r="I19">
+        <v>64</v>
+      </c>
+      <c r="J19">
+        <v>217141817</v>
+      </c>
+      <c r="K19">
+        <v>0.55502939535200002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>39706757</v>
+      </c>
+      <c r="D20">
+        <v>1008313</v>
+      </c>
+      <c r="E20">
+        <v>1342453</v>
+      </c>
+      <c r="F20">
+        <v>1002325</v>
+      </c>
+      <c r="G20">
+        <v>1335906</v>
+      </c>
+      <c r="H20">
+        <v>113953</v>
+      </c>
+      <c r="I20">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>217078635</v>
+      </c>
+      <c r="K20">
+        <v>0.55486789782099999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>600385154</v>
+      </c>
+      <c r="D21">
+        <v>15023611</v>
+      </c>
+      <c r="E21">
+        <v>20029765</v>
+      </c>
+      <c r="F21">
+        <v>15019279</v>
+      </c>
+      <c r="G21">
+        <v>20025176</v>
+      </c>
+      <c r="H21">
+        <v>15017791</v>
+      </c>
+      <c r="I21">
+        <v>64</v>
+      </c>
+      <c r="J21">
+        <v>6742139966</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>600385175</v>
+      </c>
+      <c r="D22">
+        <v>15024421</v>
+      </c>
+      <c r="E22">
+        <v>20030772</v>
+      </c>
+      <c r="F22">
+        <v>15019271</v>
+      </c>
+      <c r="G22">
+        <v>20025158</v>
+      </c>
+      <c r="H22">
+        <v>15017672</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>6742122913</v>
+      </c>
+      <c r="K22">
+        <v>0.99999747068400002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>600385186</v>
+      </c>
+      <c r="D23">
+        <v>15023546</v>
+      </c>
+      <c r="E23">
+        <v>20029648</v>
+      </c>
+      <c r="F23">
+        <v>15019274</v>
+      </c>
+      <c r="G23">
+        <v>20025166</v>
+      </c>
+      <c r="H23">
+        <v>15017518</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>6742066610</v>
+      </c>
+      <c r="K23">
+        <v>0.99998911977500005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>600385154</v>
+      </c>
+      <c r="D24">
+        <v>15023749</v>
+      </c>
+      <c r="E24">
+        <v>20029887</v>
+      </c>
+      <c r="F24">
+        <v>15019279</v>
+      </c>
+      <c r="G24">
+        <v>20025177</v>
+      </c>
+      <c r="H24">
+        <v>15017544</v>
+      </c>
+      <c r="I24">
+        <v>64</v>
+      </c>
+      <c r="J24">
+        <v>6742077208</v>
+      </c>
+      <c r="K24">
+        <v>0.99999069167900001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>600385158</v>
+      </c>
+      <c r="D25">
+        <v>15023618</v>
+      </c>
+      <c r="E25">
+        <v>20029753</v>
+      </c>
+      <c r="F25">
+        <v>15019286</v>
+      </c>
+      <c r="G25">
+        <v>20025189</v>
+      </c>
+      <c r="H25">
+        <v>15017517</v>
+      </c>
+      <c r="I25">
+        <v>64</v>
+      </c>
+      <c r="J25">
+        <v>6742068757</v>
+      </c>
+      <c r="K25">
+        <v>0.99998943821999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>600385138</v>
+      </c>
+      <c r="D26">
+        <v>15023407</v>
+      </c>
+      <c r="E26">
+        <v>20029533</v>
+      </c>
+      <c r="F26">
+        <v>15019284</v>
+      </c>
+      <c r="G26">
+        <v>20025184</v>
+      </c>
+      <c r="H26">
+        <v>15017517</v>
+      </c>
+      <c r="I26">
+        <v>64</v>
+      </c>
+      <c r="J26">
+        <v>6742065379</v>
+      </c>
+      <c r="K26">
+        <v>0.99998893719199999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>600385159</v>
+      </c>
+      <c r="D27">
+        <v>15023316</v>
+      </c>
+      <c r="E27">
+        <v>20029500</v>
+      </c>
+      <c r="F27">
+        <v>15019284</v>
+      </c>
+      <c r="G27">
+        <v>20025184</v>
+      </c>
+      <c r="H27">
+        <v>15017517</v>
+      </c>
+      <c r="I27">
+        <v>64</v>
+      </c>
+      <c r="J27">
+        <v>6742065154</v>
+      </c>
+      <c r="K27">
+        <v>0.99998890382000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>600385121</v>
+      </c>
+      <c r="D28">
+        <v>15023490</v>
+      </c>
+      <c r="E28">
+        <v>20029634</v>
+      </c>
+      <c r="F28">
+        <v>15019284</v>
+      </c>
+      <c r="G28">
+        <v>20025186</v>
+      </c>
+      <c r="H28">
+        <v>15017517</v>
+      </c>
+      <c r="I28">
+        <v>64</v>
+      </c>
+      <c r="J28">
+        <v>6742066894</v>
+      </c>
+      <c r="K28">
+        <v>0.99998916189800002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="C29">
+        <v>600385136</v>
+      </c>
+      <c r="D29">
+        <v>15024053</v>
+      </c>
+      <c r="E29">
+        <v>20030433</v>
+      </c>
+      <c r="F29">
+        <v>15019286</v>
+      </c>
+      <c r="G29">
+        <v>20025191</v>
+      </c>
+      <c r="H29">
+        <v>15017520</v>
+      </c>
+      <c r="I29">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>6742079827</v>
+      </c>
+      <c r="K29">
+        <v>0.999991080132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K3:K11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
+      <c r="A1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -14037,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -14080,38 +15348,38 @@
       <c r="A3">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>5300290</v>
+        <v>5300329</v>
       </c>
       <c r="D3">
-        <v>146281</v>
+        <v>147100</v>
       </c>
       <c r="E3">
-        <v>193356</v>
+        <v>194334</v>
       </c>
       <c r="F3">
-        <v>142190</v>
+        <v>142199</v>
       </c>
       <c r="G3">
-        <v>189040</v>
+        <v>189062</v>
       </c>
       <c r="H3">
-        <v>28530</v>
+        <v>149191</v>
       </c>
       <c r="I3">
         <v>64</v>
       </c>
       <c r="J3">
-        <v>33041139</v>
+        <v>64548871</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>13</v>
       </c>
       <c r="N3">
         <f>K3</f>
@@ -14130,323 +15398,323 @@
       <c r="A4">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>5300311</v>
+        <v>5300294</v>
       </c>
       <c r="D4">
-        <v>146199</v>
+        <v>146322</v>
       </c>
       <c r="E4">
-        <v>193277</v>
+        <v>193373</v>
       </c>
       <c r="F4">
-        <v>142188</v>
+        <v>142190</v>
       </c>
       <c r="G4">
-        <v>189038</v>
+        <v>189041</v>
       </c>
       <c r="H4">
-        <v>28391</v>
+        <v>28791</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4">
-        <v>33003762</v>
+        <v>33109487</v>
       </c>
       <c r="K4">
-        <v>0.99886877386399997</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
+        <v>0.51293673285200003</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N11" si="0">K4</f>
-        <v>0.99886877386399997</v>
+        <v>0.51293673285200003</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O11" si="1">K13</f>
-        <v>0.70828267418199997</v>
+        <v>0.83765561325299998</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P11" si="2">K22</f>
-        <v>0.99999747068400002</v>
+        <v>0.83768308909</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>5300301</v>
+        <v>5300294</v>
       </c>
       <c r="D5">
-        <v>146182</v>
+        <v>146772</v>
       </c>
       <c r="E5">
-        <v>193287</v>
+        <v>193901</v>
       </c>
       <c r="F5">
-        <v>142200</v>
+        <v>142204</v>
       </c>
       <c r="G5">
-        <v>189061</v>
+        <v>189068</v>
       </c>
       <c r="H5">
-        <v>28330</v>
+        <v>28331</v>
       </c>
       <c r="I5">
         <v>64</v>
       </c>
       <c r="J5">
-        <v>32988955</v>
+        <v>32998138</v>
       </c>
       <c r="K5">
-        <v>0.99842063556000005</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
+        <v>0.51121169880700001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.99842063556000005</v>
+        <v>0.51121169880700001</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>0.55528681702799998</v>
+        <v>0.83763343733700002</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>0.99998911977500005</v>
+        <v>0.83768134876300004</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>5300311</v>
+        <v>5300294</v>
       </c>
       <c r="D6">
-        <v>146197</v>
+        <v>146695</v>
       </c>
       <c r="E6">
-        <v>193306</v>
+        <v>193791</v>
       </c>
       <c r="F6">
-        <v>142193</v>
+        <v>142204</v>
       </c>
       <c r="G6">
-        <v>189048</v>
+        <v>189068</v>
       </c>
       <c r="H6">
-        <v>28365</v>
+        <v>28327</v>
       </c>
       <c r="I6">
         <v>64</v>
       </c>
       <c r="J6">
-        <v>32997880</v>
+        <v>32995455</v>
       </c>
       <c r="K6">
-        <v>0.99869075336699997</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
+        <v>0.51117013340200002</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.99869075336699997</v>
+        <v>0.51117013340200002</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>0.55515089807600004</v>
+        <v>0.83762582995000001</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0.99999069167900001</v>
+        <v>0.83768226471200002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>5300301</v>
+        <v>5300311</v>
       </c>
       <c r="D7">
-        <v>146662</v>
+        <v>147205</v>
       </c>
       <c r="E7">
-        <v>193830</v>
+        <v>194498</v>
       </c>
       <c r="F7">
-        <v>142208</v>
+        <v>142189</v>
       </c>
       <c r="G7">
-        <v>189075</v>
+        <v>189037</v>
       </c>
       <c r="H7">
-        <v>28335</v>
+        <v>28327</v>
       </c>
       <c r="I7">
         <v>64</v>
       </c>
       <c r="J7">
-        <v>32998601</v>
+        <v>33004731</v>
       </c>
       <c r="K7">
-        <v>0.99871257464800001</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
+        <v>0.51131383847099998</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.99871257464800001</v>
+        <v>0.51131383847099998</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.55509214172599997</v>
+        <v>0.405580222908</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.99998943821999997</v>
+        <v>0.83768169851800001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>5300319</v>
+        <v>5300312</v>
       </c>
       <c r="D8">
-        <v>146700</v>
+        <v>146847</v>
       </c>
       <c r="E8">
-        <v>193888</v>
+        <v>194189</v>
       </c>
       <c r="F8">
-        <v>142199</v>
+        <v>142204</v>
       </c>
       <c r="G8">
-        <v>189058</v>
+        <v>189069</v>
       </c>
       <c r="H8">
-        <v>28328</v>
+        <v>28327</v>
       </c>
       <c r="I8">
         <v>64</v>
       </c>
       <c r="J8">
-        <v>32997020</v>
+        <v>33001868</v>
       </c>
       <c r="K8">
-        <v>0.99866472520799998</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
+        <v>0.51126948448099996</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.99866472520799998</v>
+        <v>0.51126948448099996</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.55505762201800002</v>
+        <v>0.40558457105399998</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.99998893719199999</v>
+        <v>0.83768234012999998</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>32</v>
+      <c r="B9" t="s">
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>5300319</v>
+        <v>5300329</v>
       </c>
       <c r="D9">
-        <v>146357</v>
+        <v>146496</v>
       </c>
       <c r="E9">
-        <v>193450</v>
+        <v>193648</v>
       </c>
       <c r="F9">
-        <v>142202</v>
+        <v>142192</v>
       </c>
       <c r="G9">
-        <v>189068</v>
+        <v>189048</v>
       </c>
       <c r="H9">
-        <v>28328</v>
+        <v>28327</v>
       </c>
       <c r="I9">
         <v>64</v>
       </c>
       <c r="J9">
-        <v>32991042</v>
+        <v>32992950</v>
       </c>
       <c r="K9">
-        <v>0.99848379924200004</v>
-      </c>
-      <c r="M9">
-        <v>32</v>
+        <v>0.51113132559700003</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.99848379924200004</v>
+        <v>0.51113132559700003</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>0.55505455217999999</v>
+        <v>0.40560400696600002</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.99998890382000005</v>
+        <v>0.83768141523499995</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>64</v>
+      <c r="B10" t="s">
+        <v>35</v>
       </c>
       <c r="C10">
         <v>5300308</v>
       </c>
       <c r="D10">
-        <v>146515</v>
+        <v>146341</v>
       </c>
       <c r="E10">
-        <v>193695</v>
+        <v>193433</v>
       </c>
       <c r="F10">
-        <v>142206</v>
+        <v>142197</v>
       </c>
       <c r="G10">
-        <v>189070</v>
+        <v>189060</v>
       </c>
       <c r="H10">
         <v>28327</v>
@@ -14455,48 +15723,48 @@
         <v>64</v>
       </c>
       <c r="J10">
-        <v>32994469</v>
+        <v>32990200</v>
       </c>
       <c r="K10">
-        <v>0.998587518427</v>
-      </c>
-      <c r="M10">
-        <v>64</v>
+        <v>0.51108872221799995</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.998587518427</v>
+        <v>0.51108872221799995</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>0.55502939535200002</v>
+        <v>0.40558613436899998</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.99998916189800002</v>
+        <v>0.83768105392500003</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>128</v>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>5300353</v>
+        <v>5300325</v>
       </c>
       <c r="D11">
-        <v>146240</v>
+        <v>146344</v>
       </c>
       <c r="E11">
-        <v>193302</v>
+        <v>193447</v>
       </c>
       <c r="F11">
-        <v>142197</v>
+        <v>142186</v>
       </c>
       <c r="G11">
-        <v>189056</v>
+        <v>189035</v>
       </c>
       <c r="H11">
         <v>28327</v>
@@ -14505,57 +15773,57 @@
         <v>64</v>
       </c>
       <c r="J11">
-        <v>32988215</v>
+        <v>32989442</v>
       </c>
       <c r="K11">
-        <v>0.998398239237</v>
-      </c>
-      <c r="M11">
-        <v>128</v>
+        <v>0.51107697917799999</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.998398239237</v>
+        <v>0.51107697917799999</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0.55486789782099999</v>
+        <v>0.40559915452500001</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.999991080132</v>
+        <v>0.39985240226399998</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>39706736</v>
+        <v>39706727</v>
       </c>
       <c r="D12">
-        <v>1006421</v>
+        <v>1006641</v>
       </c>
       <c r="E12">
-        <v>1340221</v>
+        <v>1340495</v>
       </c>
       <c r="F12">
-        <v>1002325</v>
+        <v>1002347</v>
       </c>
       <c r="G12">
-        <v>1335908</v>
+        <v>1335915</v>
       </c>
       <c r="H12">
-        <v>781307</v>
+        <v>1333686</v>
       </c>
       <c r="I12">
         <v>64</v>
       </c>
       <c r="J12">
-        <v>391225796</v>
+        <v>535400655</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -14565,312 +15833,312 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>39706736</v>
+        <v>39706692</v>
       </c>
       <c r="D13">
-        <v>1006735</v>
+        <v>1006256</v>
       </c>
       <c r="E13">
-        <v>1340579</v>
+        <v>1340028</v>
       </c>
       <c r="F13">
-        <v>1002312</v>
+        <v>1002357</v>
       </c>
       <c r="G13">
-        <v>1335881</v>
+        <v>1335936</v>
       </c>
       <c r="H13">
-        <v>344022</v>
+        <v>1000685</v>
       </c>
       <c r="I13">
         <v>64</v>
       </c>
       <c r="J13">
-        <v>277098453</v>
+        <v>448481364</v>
       </c>
       <c r="K13">
-        <v>0.70828267418199997</v>
+        <v>0.83765561325299998</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>39706736</v>
+        <v>39706692</v>
       </c>
       <c r="D14">
-        <v>1007200</v>
+        <v>1006834</v>
       </c>
       <c r="E14">
-        <v>1341271</v>
+        <v>1340682</v>
       </c>
       <c r="F14">
-        <v>1002325</v>
+        <v>1002360</v>
       </c>
       <c r="G14">
-        <v>1335908</v>
+        <v>1335940</v>
       </c>
       <c r="H14">
-        <v>114645</v>
+        <v>1000603</v>
       </c>
       <c r="I14">
         <v>64</v>
       </c>
       <c r="J14">
-        <v>217242527</v>
+        <v>448469491</v>
       </c>
       <c r="K14">
-        <v>0.55528681702799998</v>
+        <v>0.83763343733700002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>4</v>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>39706719</v>
+        <v>39706717</v>
       </c>
       <c r="D15">
-        <v>1006959</v>
+        <v>1006543</v>
       </c>
       <c r="E15">
-        <v>1340868</v>
+        <v>1340334</v>
       </c>
       <c r="F15">
-        <v>1002324</v>
+        <v>1002364</v>
       </c>
       <c r="G15">
-        <v>1335902</v>
+        <v>1335949</v>
       </c>
       <c r="H15">
-        <v>114466</v>
+        <v>1000605</v>
       </c>
       <c r="I15">
         <v>64</v>
       </c>
       <c r="J15">
-        <v>217189352</v>
+        <v>448465418</v>
       </c>
       <c r="K15">
-        <v>0.55515089807600004</v>
+        <v>0.83762582995000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>8</v>
+      <c r="B16" t="s">
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>39706719</v>
+        <v>39706696</v>
       </c>
       <c r="D16">
-        <v>1006790</v>
+        <v>1006291</v>
       </c>
       <c r="E16">
-        <v>1340671</v>
+        <v>1340077</v>
       </c>
       <c r="F16">
-        <v>1002323</v>
+        <v>1002360</v>
       </c>
       <c r="G16">
-        <v>1335906</v>
+        <v>1335943</v>
       </c>
       <c r="H16">
-        <v>114388</v>
+        <v>114346</v>
       </c>
       <c r="I16">
         <v>64</v>
       </c>
       <c r="J16">
-        <v>217166365</v>
+        <v>217147917</v>
       </c>
       <c r="K16">
-        <v>0.55509214172599997</v>
+        <v>0.405580222908</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>39706744</v>
+        <v>39706710</v>
       </c>
       <c r="D17">
-        <v>1006634</v>
+        <v>1006501</v>
       </c>
       <c r="E17">
-        <v>1340515</v>
+        <v>1340306</v>
       </c>
       <c r="F17">
-        <v>1002312</v>
+        <v>1002357</v>
       </c>
       <c r="G17">
-        <v>1335888</v>
+        <v>1335938</v>
       </c>
       <c r="H17">
-        <v>114347</v>
+        <v>114343</v>
       </c>
       <c r="I17">
         <v>64</v>
       </c>
       <c r="J17">
-        <v>217152860</v>
+        <v>217150245</v>
       </c>
       <c r="K17">
-        <v>0.55505762201800002</v>
+        <v>0.40558457105399998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18">
-        <v>32</v>
+      <c r="B18" t="s">
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>39706737</v>
+        <v>39706710</v>
       </c>
       <c r="D18">
-        <v>1006709</v>
+        <v>1006956</v>
       </c>
       <c r="E18">
-        <v>1340581</v>
+        <v>1340988</v>
       </c>
       <c r="F18">
-        <v>1002321</v>
+        <v>1002361</v>
       </c>
       <c r="G18">
-        <v>1335902</v>
+        <v>1335943</v>
       </c>
       <c r="H18">
-        <v>114337</v>
+        <v>114343</v>
       </c>
       <c r="I18">
         <v>64</v>
       </c>
       <c r="J18">
-        <v>217151659</v>
+        <v>217160651</v>
       </c>
       <c r="K18">
-        <v>0.55505455217999999</v>
+        <v>0.40560400696600002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>64</v>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>39706754</v>
+        <v>39706721</v>
       </c>
       <c r="D19">
-        <v>1006241</v>
+        <v>1006518</v>
       </c>
       <c r="E19">
-        <v>1340034</v>
+        <v>1340338</v>
       </c>
       <c r="F19">
-        <v>1002306</v>
+        <v>1002355</v>
       </c>
       <c r="G19">
-        <v>1335872</v>
+        <v>1335933</v>
       </c>
       <c r="H19">
-        <v>114334</v>
+        <v>114345</v>
       </c>
       <c r="I19">
         <v>64</v>
       </c>
       <c r="J19">
-        <v>217141817</v>
+        <v>217151082</v>
       </c>
       <c r="K19">
-        <v>0.55502939535200002</v>
+        <v>0.40558613436899998</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20">
-        <v>128</v>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>39706757</v>
+        <v>39706731</v>
       </c>
       <c r="D20">
-        <v>1008313</v>
+        <v>1006993</v>
       </c>
       <c r="E20">
-        <v>1342453</v>
+        <v>1340814</v>
       </c>
       <c r="F20">
-        <v>1002325</v>
+        <v>1002361</v>
       </c>
       <c r="G20">
-        <v>1335906</v>
+        <v>1335946</v>
       </c>
       <c r="H20">
-        <v>113953</v>
+        <v>114344</v>
       </c>
       <c r="I20">
         <v>64</v>
       </c>
       <c r="J20">
-        <v>217078635</v>
+        <v>217158053</v>
       </c>
       <c r="K20">
-        <v>0.55486789782099999</v>
+        <v>0.40559915452500001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>600385154</v>
+        <v>600385161</v>
       </c>
       <c r="D21">
-        <v>15023611</v>
+        <v>15023936</v>
       </c>
       <c r="E21">
-        <v>20029765</v>
+        <v>20030100</v>
       </c>
       <c r="F21">
-        <v>15019279</v>
+        <v>15019280</v>
       </c>
       <c r="G21">
-        <v>20025176</v>
+        <v>20025174</v>
       </c>
       <c r="H21">
-        <v>15017791</v>
+        <v>20022938</v>
       </c>
       <c r="I21">
         <v>64</v>
       </c>
       <c r="J21">
-        <v>6742139966</v>
+        <v>8048487959</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -14880,58 +16148,58 @@
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>600385175</v>
+        <v>600385126</v>
       </c>
       <c r="D22">
-        <v>15024421</v>
+        <v>15023180</v>
       </c>
       <c r="E22">
-        <v>20030772</v>
+        <v>20029274</v>
       </c>
       <c r="F22">
-        <v>15019271</v>
+        <v>15019285</v>
       </c>
       <c r="G22">
-        <v>20025158</v>
+        <v>20025190</v>
       </c>
       <c r="H22">
-        <v>15017672</v>
+        <v>15017595</v>
       </c>
       <c r="I22">
         <v>64</v>
       </c>
       <c r="J22">
-        <v>6742122913</v>
+        <v>6742082256</v>
       </c>
       <c r="K22">
-        <v>0.99999747068400002</v>
+        <v>0.83768308909</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="s">
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>600385186</v>
+        <v>600385126</v>
       </c>
       <c r="D23">
-        <v>15023546</v>
+        <v>15023637</v>
       </c>
       <c r="E23">
-        <v>20029648</v>
+        <v>20029755</v>
       </c>
       <c r="F23">
-        <v>15019274</v>
+        <v>15019281</v>
       </c>
       <c r="G23">
-        <v>20025166</v>
+        <v>20025174</v>
       </c>
       <c r="H23">
         <v>15017518</v>
@@ -14940,68 +16208,68 @@
         <v>64</v>
       </c>
       <c r="J23">
-        <v>6742066610</v>
+        <v>6742068249</v>
       </c>
       <c r="K23">
-        <v>0.99998911977500005</v>
+        <v>0.83768134876300004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24">
-        <v>4</v>
+      <c r="B24" t="s">
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>600385154</v>
+        <v>600385115</v>
       </c>
       <c r="D24">
-        <v>15023749</v>
+        <v>15023955</v>
       </c>
       <c r="E24">
-        <v>20029887</v>
+        <v>20030217</v>
       </c>
       <c r="F24">
-        <v>15019279</v>
+        <v>15019283</v>
       </c>
       <c r="G24">
-        <v>20025177</v>
+        <v>20025185</v>
       </c>
       <c r="H24">
-        <v>15017544</v>
+        <v>15017518</v>
       </c>
       <c r="I24">
         <v>64</v>
       </c>
       <c r="J24">
-        <v>6742077208</v>
+        <v>6742075621</v>
       </c>
       <c r="K24">
-        <v>0.99999069167900001</v>
+        <v>0.83768226471200002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25">
-        <v>8</v>
+      <c r="B25" t="s">
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>600385158</v>
+        <v>600385136</v>
       </c>
       <c r="D25">
-        <v>15023618</v>
+        <v>15023688</v>
       </c>
       <c r="E25">
-        <v>20029753</v>
+        <v>20029923</v>
       </c>
       <c r="F25">
-        <v>15019286</v>
+        <v>15019281</v>
       </c>
       <c r="G25">
-        <v>20025189</v>
+        <v>20025181</v>
       </c>
       <c r="H25">
         <v>15017517</v>
@@ -15010,150 +16278,150 @@
         <v>64</v>
       </c>
       <c r="J25">
-        <v>6742068757</v>
+        <v>6742071064</v>
       </c>
       <c r="K25">
-        <v>0.99998943821999997</v>
+        <v>0.83768169851800001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26">
-        <v>16</v>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>600385138</v>
+        <v>600385144</v>
       </c>
       <c r="D26">
-        <v>15023407</v>
+        <v>15024110</v>
       </c>
       <c r="E26">
-        <v>20029533</v>
+        <v>20030251</v>
       </c>
       <c r="F26">
         <v>15019284</v>
       </c>
       <c r="G26">
-        <v>20025184</v>
+        <v>20025183</v>
       </c>
       <c r="H26">
-        <v>15017517</v>
+        <v>15017520</v>
       </c>
       <c r="I26">
         <v>64</v>
       </c>
       <c r="J26">
-        <v>6742065379</v>
+        <v>6742076228</v>
       </c>
       <c r="K26">
-        <v>0.99998893719199999</v>
+        <v>0.83768234012999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27">
-        <v>32</v>
+      <c r="B27" t="s">
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>600385159</v>
+        <v>600385144</v>
       </c>
       <c r="D27">
-        <v>15023316</v>
+        <v>15023569</v>
       </c>
       <c r="E27">
-        <v>20029500</v>
+        <v>20029706</v>
       </c>
       <c r="F27">
-        <v>15019284</v>
+        <v>15019281</v>
       </c>
       <c r="G27">
-        <v>20025184</v>
+        <v>20025186</v>
       </c>
       <c r="H27">
-        <v>15017517</v>
+        <v>15017520</v>
       </c>
       <c r="I27">
         <v>64</v>
       </c>
       <c r="J27">
-        <v>6742065154</v>
+        <v>6742068784</v>
       </c>
       <c r="K27">
-        <v>0.99998890382000005</v>
+        <v>0.83768141523499995</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28">
-        <v>64</v>
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>600385121</v>
+        <v>600385154</v>
       </c>
       <c r="D28">
-        <v>15023490</v>
+        <v>15023498</v>
       </c>
       <c r="E28">
-        <v>20029634</v>
+        <v>20029599</v>
       </c>
       <c r="F28">
-        <v>15019284</v>
+        <v>15019271</v>
       </c>
       <c r="G28">
-        <v>20025186</v>
+        <v>20025166</v>
       </c>
       <c r="H28">
-        <v>15017517</v>
+        <v>15017518</v>
       </c>
       <c r="I28">
         <v>64</v>
       </c>
       <c r="J28">
-        <v>6742066894</v>
+        <v>6742065876</v>
       </c>
       <c r="K28">
-        <v>0.99998916189800002</v>
+        <v>0.83768105392500003</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>128</v>
+      <c r="B29" t="s">
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>600385136</v>
+        <v>600385171</v>
       </c>
       <c r="D29">
-        <v>15024053</v>
+        <v>15024983</v>
       </c>
       <c r="E29">
-        <v>20030433</v>
+        <v>20031557</v>
       </c>
       <c r="F29">
-        <v>15019286</v>
+        <v>15019287</v>
       </c>
       <c r="G29">
-        <v>20025191</v>
+        <v>20025189</v>
       </c>
       <c r="H29">
-        <v>15017520</v>
+        <v>1516030</v>
       </c>
       <c r="I29">
         <v>64</v>
       </c>
       <c r="J29">
-        <v>6742079827</v>
+        <v>3218207245</v>
       </c>
       <c r="K29">
-        <v>0.999991080132</v>
+        <v>0.39985240226399998</v>
       </c>
     </row>
   </sheetData>
@@ -15194,1184 +16462,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>5300329</v>
-      </c>
-      <c r="D3">
-        <v>147100</v>
-      </c>
-      <c r="E3">
-        <v>194334</v>
-      </c>
-      <c r="F3">
-        <v>142199</v>
-      </c>
-      <c r="G3">
-        <v>189062</v>
-      </c>
-      <c r="H3">
-        <v>149191</v>
-      </c>
-      <c r="I3">
-        <v>64</v>
-      </c>
-      <c r="J3">
-        <v>64548871</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <f>K3</f>
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f>K12</f>
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f>K21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>5300294</v>
-      </c>
-      <c r="D4">
-        <v>146322</v>
-      </c>
-      <c r="E4">
-        <v>193373</v>
-      </c>
-      <c r="F4">
-        <v>142190</v>
-      </c>
-      <c r="G4">
-        <v>189041</v>
-      </c>
-      <c r="H4">
-        <v>28791</v>
-      </c>
-      <c r="I4">
-        <v>64</v>
-      </c>
-      <c r="J4">
-        <v>33109487</v>
-      </c>
-      <c r="K4">
-        <v>0.51293673285200003</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N11" si="0">K4</f>
-        <v>0.51293673285200003</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O11" si="1">K13</f>
-        <v>0.83765561325299998</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P11" si="2">K22</f>
-        <v>0.83768308909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>5300294</v>
-      </c>
-      <c r="D5">
-        <v>146772</v>
-      </c>
-      <c r="E5">
-        <v>193901</v>
-      </c>
-      <c r="F5">
-        <v>142204</v>
-      </c>
-      <c r="G5">
-        <v>189068</v>
-      </c>
-      <c r="H5">
-        <v>28331</v>
-      </c>
-      <c r="I5">
-        <v>64</v>
-      </c>
-      <c r="J5">
-        <v>32998138</v>
-      </c>
-      <c r="K5">
-        <v>0.51121169880700001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.51121169880700001</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0.83763343733700002</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>0.83768134876300004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>5300294</v>
-      </c>
-      <c r="D6">
-        <v>146695</v>
-      </c>
-      <c r="E6">
-        <v>193791</v>
-      </c>
-      <c r="F6">
-        <v>142204</v>
-      </c>
-      <c r="G6">
-        <v>189068</v>
-      </c>
-      <c r="H6">
-        <v>28327</v>
-      </c>
-      <c r="I6">
-        <v>64</v>
-      </c>
-      <c r="J6">
-        <v>32995455</v>
-      </c>
-      <c r="K6">
-        <v>0.51117013340200002</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.51117013340200002</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0.83762582995000001</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>0.83768226471200002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>5300311</v>
-      </c>
-      <c r="D7">
-        <v>147205</v>
-      </c>
-      <c r="E7">
-        <v>194498</v>
-      </c>
-      <c r="F7">
-        <v>142189</v>
-      </c>
-      <c r="G7">
-        <v>189037</v>
-      </c>
-      <c r="H7">
-        <v>28327</v>
-      </c>
-      <c r="I7">
-        <v>64</v>
-      </c>
-      <c r="J7">
-        <v>33004731</v>
-      </c>
-      <c r="K7">
-        <v>0.51131383847099998</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.51131383847099998</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0.405580222908</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>0.83768169851800001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>5300312</v>
-      </c>
-      <c r="D8">
-        <v>146847</v>
-      </c>
-      <c r="E8">
-        <v>194189</v>
-      </c>
-      <c r="F8">
-        <v>142204</v>
-      </c>
-      <c r="G8">
-        <v>189069</v>
-      </c>
-      <c r="H8">
-        <v>28327</v>
-      </c>
-      <c r="I8">
-        <v>64</v>
-      </c>
-      <c r="J8">
-        <v>33001868</v>
-      </c>
-      <c r="K8">
-        <v>0.51126948448099996</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.51126948448099996</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.40558457105399998</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0.83768234012999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>5300329</v>
-      </c>
-      <c r="D9">
-        <v>146496</v>
-      </c>
-      <c r="E9">
-        <v>193648</v>
-      </c>
-      <c r="F9">
-        <v>142192</v>
-      </c>
-      <c r="G9">
-        <v>189048</v>
-      </c>
-      <c r="H9">
-        <v>28327</v>
-      </c>
-      <c r="I9">
-        <v>64</v>
-      </c>
-      <c r="J9">
-        <v>32992950</v>
-      </c>
-      <c r="K9">
-        <v>0.51113132559700003</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.51113132559700003</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0.40560400696600002</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>0.83768141523499995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>5300308</v>
-      </c>
-      <c r="D10">
-        <v>146341</v>
-      </c>
-      <c r="E10">
-        <v>193433</v>
-      </c>
-      <c r="F10">
-        <v>142197</v>
-      </c>
-      <c r="G10">
-        <v>189060</v>
-      </c>
-      <c r="H10">
-        <v>28327</v>
-      </c>
-      <c r="I10">
-        <v>64</v>
-      </c>
-      <c r="J10">
-        <v>32990200</v>
-      </c>
-      <c r="K10">
-        <v>0.51108872221799995</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0.51108872221799995</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0.40558613436899998</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>0.83768105392500003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>5300325</v>
-      </c>
-      <c r="D11">
-        <v>146344</v>
-      </c>
-      <c r="E11">
-        <v>193447</v>
-      </c>
-      <c r="F11">
-        <v>142186</v>
-      </c>
-      <c r="G11">
-        <v>189035</v>
-      </c>
-      <c r="H11">
-        <v>28327</v>
-      </c>
-      <c r="I11">
-        <v>64</v>
-      </c>
-      <c r="J11">
-        <v>32989442</v>
-      </c>
-      <c r="K11">
-        <v>0.51107697917799999</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0.51107697917799999</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0.40559915452500001</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0.39985240226399998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>39706727</v>
-      </c>
-      <c r="D12">
-        <v>1006641</v>
-      </c>
-      <c r="E12">
-        <v>1340495</v>
-      </c>
-      <c r="F12">
-        <v>1002347</v>
-      </c>
-      <c r="G12">
-        <v>1335915</v>
-      </c>
-      <c r="H12">
-        <v>1333686</v>
-      </c>
-      <c r="I12">
-        <v>64</v>
-      </c>
-      <c r="J12">
-        <v>535400655</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>39706692</v>
-      </c>
-      <c r="D13">
-        <v>1006256</v>
-      </c>
-      <c r="E13">
-        <v>1340028</v>
-      </c>
-      <c r="F13">
-        <v>1002357</v>
-      </c>
-      <c r="G13">
-        <v>1335936</v>
-      </c>
-      <c r="H13">
-        <v>1000685</v>
-      </c>
-      <c r="I13">
-        <v>64</v>
-      </c>
-      <c r="J13">
-        <v>448481364</v>
-      </c>
-      <c r="K13">
-        <v>0.83765561325299998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>39706692</v>
-      </c>
-      <c r="D14">
-        <v>1006834</v>
-      </c>
-      <c r="E14">
-        <v>1340682</v>
-      </c>
-      <c r="F14">
-        <v>1002360</v>
-      </c>
-      <c r="G14">
-        <v>1335940</v>
-      </c>
-      <c r="H14">
-        <v>1000603</v>
-      </c>
-      <c r="I14">
-        <v>64</v>
-      </c>
-      <c r="J14">
-        <v>448469491</v>
-      </c>
-      <c r="K14">
-        <v>0.83763343733700002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>39706717</v>
-      </c>
-      <c r="D15">
-        <v>1006543</v>
-      </c>
-      <c r="E15">
-        <v>1340334</v>
-      </c>
-      <c r="F15">
-        <v>1002364</v>
-      </c>
-      <c r="G15">
-        <v>1335949</v>
-      </c>
-      <c r="H15">
-        <v>1000605</v>
-      </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
-      <c r="J15">
-        <v>448465418</v>
-      </c>
-      <c r="K15">
-        <v>0.83762582995000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>39706696</v>
-      </c>
-      <c r="D16">
-        <v>1006291</v>
-      </c>
-      <c r="E16">
-        <v>1340077</v>
-      </c>
-      <c r="F16">
-        <v>1002360</v>
-      </c>
-      <c r="G16">
-        <v>1335943</v>
-      </c>
-      <c r="H16">
-        <v>114346</v>
-      </c>
-      <c r="I16">
-        <v>64</v>
-      </c>
-      <c r="J16">
-        <v>217147917</v>
-      </c>
-      <c r="K16">
-        <v>0.405580222908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>39706710</v>
-      </c>
-      <c r="D17">
-        <v>1006501</v>
-      </c>
-      <c r="E17">
-        <v>1340306</v>
-      </c>
-      <c r="F17">
-        <v>1002357</v>
-      </c>
-      <c r="G17">
-        <v>1335938</v>
-      </c>
-      <c r="H17">
-        <v>114343</v>
-      </c>
-      <c r="I17">
-        <v>64</v>
-      </c>
-      <c r="J17">
-        <v>217150245</v>
-      </c>
-      <c r="K17">
-        <v>0.40558457105399998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>39706710</v>
-      </c>
-      <c r="D18">
-        <v>1006956</v>
-      </c>
-      <c r="E18">
-        <v>1340988</v>
-      </c>
-      <c r="F18">
-        <v>1002361</v>
-      </c>
-      <c r="G18">
-        <v>1335943</v>
-      </c>
-      <c r="H18">
-        <v>114343</v>
-      </c>
-      <c r="I18">
-        <v>64</v>
-      </c>
-      <c r="J18">
-        <v>217160651</v>
-      </c>
-      <c r="K18">
-        <v>0.40560400696600002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>39706721</v>
-      </c>
-      <c r="D19">
-        <v>1006518</v>
-      </c>
-      <c r="E19">
-        <v>1340338</v>
-      </c>
-      <c r="F19">
-        <v>1002355</v>
-      </c>
-      <c r="G19">
-        <v>1335933</v>
-      </c>
-      <c r="H19">
-        <v>114345</v>
-      </c>
-      <c r="I19">
-        <v>64</v>
-      </c>
-      <c r="J19">
-        <v>217151082</v>
-      </c>
-      <c r="K19">
-        <v>0.40558613436899998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>39706731</v>
-      </c>
-      <c r="D20">
-        <v>1006993</v>
-      </c>
-      <c r="E20">
-        <v>1340814</v>
-      </c>
-      <c r="F20">
-        <v>1002361</v>
-      </c>
-      <c r="G20">
-        <v>1335946</v>
-      </c>
-      <c r="H20">
-        <v>114344</v>
-      </c>
-      <c r="I20">
-        <v>64</v>
-      </c>
-      <c r="J20">
-        <v>217158053</v>
-      </c>
-      <c r="K20">
-        <v>0.40559915452500001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>600385161</v>
-      </c>
-      <c r="D21">
-        <v>15023936</v>
-      </c>
-      <c r="E21">
-        <v>20030100</v>
-      </c>
-      <c r="F21">
-        <v>15019280</v>
-      </c>
-      <c r="G21">
-        <v>20025174</v>
-      </c>
-      <c r="H21">
-        <v>20022938</v>
-      </c>
-      <c r="I21">
-        <v>64</v>
-      </c>
-      <c r="J21">
-        <v>8048487959</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>600385126</v>
-      </c>
-      <c r="D22">
-        <v>15023180</v>
-      </c>
-      <c r="E22">
-        <v>20029274</v>
-      </c>
-      <c r="F22">
-        <v>15019285</v>
-      </c>
-      <c r="G22">
-        <v>20025190</v>
-      </c>
-      <c r="H22">
-        <v>15017595</v>
-      </c>
-      <c r="I22">
-        <v>64</v>
-      </c>
-      <c r="J22">
-        <v>6742082256</v>
-      </c>
-      <c r="K22">
-        <v>0.83768308909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>600385126</v>
-      </c>
-      <c r="D23">
-        <v>15023637</v>
-      </c>
-      <c r="E23">
-        <v>20029755</v>
-      </c>
-      <c r="F23">
-        <v>15019281</v>
-      </c>
-      <c r="G23">
-        <v>20025174</v>
-      </c>
-      <c r="H23">
-        <v>15017518</v>
-      </c>
-      <c r="I23">
-        <v>64</v>
-      </c>
-      <c r="J23">
-        <v>6742068249</v>
-      </c>
-      <c r="K23">
-        <v>0.83768134876300004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>600385115</v>
-      </c>
-      <c r="D24">
-        <v>15023955</v>
-      </c>
-      <c r="E24">
-        <v>20030217</v>
-      </c>
-      <c r="F24">
-        <v>15019283</v>
-      </c>
-      <c r="G24">
-        <v>20025185</v>
-      </c>
-      <c r="H24">
-        <v>15017518</v>
-      </c>
-      <c r="I24">
-        <v>64</v>
-      </c>
-      <c r="J24">
-        <v>6742075621</v>
-      </c>
-      <c r="K24">
-        <v>0.83768226471200002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>600385136</v>
-      </c>
-      <c r="D25">
-        <v>15023688</v>
-      </c>
-      <c r="E25">
-        <v>20029923</v>
-      </c>
-      <c r="F25">
-        <v>15019281</v>
-      </c>
-      <c r="G25">
-        <v>20025181</v>
-      </c>
-      <c r="H25">
-        <v>15017517</v>
-      </c>
-      <c r="I25">
-        <v>64</v>
-      </c>
-      <c r="J25">
-        <v>6742071064</v>
-      </c>
-      <c r="K25">
-        <v>0.83768169851800001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>600385144</v>
-      </c>
-      <c r="D26">
-        <v>15024110</v>
-      </c>
-      <c r="E26">
-        <v>20030251</v>
-      </c>
-      <c r="F26">
-        <v>15019284</v>
-      </c>
-      <c r="G26">
-        <v>20025183</v>
-      </c>
-      <c r="H26">
-        <v>15017520</v>
-      </c>
-      <c r="I26">
-        <v>64</v>
-      </c>
-      <c r="J26">
-        <v>6742076228</v>
-      </c>
-      <c r="K26">
-        <v>0.83768234012999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>600385144</v>
-      </c>
-      <c r="D27">
-        <v>15023569</v>
-      </c>
-      <c r="E27">
-        <v>20029706</v>
-      </c>
-      <c r="F27">
-        <v>15019281</v>
-      </c>
-      <c r="G27">
-        <v>20025186</v>
-      </c>
-      <c r="H27">
-        <v>15017520</v>
-      </c>
-      <c r="I27">
-        <v>64</v>
-      </c>
-      <c r="J27">
-        <v>6742068784</v>
-      </c>
-      <c r="K27">
-        <v>0.83768141523499995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>600385154</v>
-      </c>
-      <c r="D28">
-        <v>15023498</v>
-      </c>
-      <c r="E28">
-        <v>20029599</v>
-      </c>
-      <c r="F28">
-        <v>15019271</v>
-      </c>
-      <c r="G28">
-        <v>20025166</v>
-      </c>
-      <c r="H28">
-        <v>15017518</v>
-      </c>
-      <c r="I28">
-        <v>64</v>
-      </c>
-      <c r="J28">
-        <v>6742065876</v>
-      </c>
-      <c r="K28">
-        <v>0.83768105392500003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>600385171</v>
-      </c>
-      <c r="D29">
-        <v>15024983</v>
-      </c>
-      <c r="E29">
-        <v>20031557</v>
-      </c>
-      <c r="F29">
-        <v>15019287</v>
-      </c>
-      <c r="G29">
-        <v>20025189</v>
-      </c>
-      <c r="H29">
-        <v>1516030</v>
-      </c>
-      <c r="I29">
-        <v>64</v>
-      </c>
-      <c r="J29">
-        <v>3218207245</v>
-      </c>
-      <c r="K29">
-        <v>0.39985240226399998</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K3:K11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K29">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16379,14 +16470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17393,6 +17493,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="K3:K10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -17430,5 +17533,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>